--- a/quiz_data_kaseanni.xlsx
+++ b/quiz_data_kaseanni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Máy tính\job\demo web\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="154">
   <si>
     <t>Question</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>A, D, E</t>
+  </si>
+  <si>
+    <t>MCQ-Multi</t>
   </si>
 </sst>
 </file>
@@ -847,14 +850,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="91.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.453125" bestFit="1" customWidth="1"/>
@@ -898,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -982,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1040,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1098,7 +1101,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -1185,7 +1188,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -1243,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -1301,7 +1304,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -1359,7 +1362,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -1417,7 +1420,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
